--- a/xlsx/美国各州昵称列表_intext.xlsx
+++ b/xlsx/美国各州昵称列表_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>政策_政策_加州_美国各州昵称列表</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
+    <t>北卡罗来纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -239,25 +239,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧勒岡州</t>
+    <t>奥勒冈州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -269,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_State_Lists</t>
@@ -341,25 +341,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -401,37 +401,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%92%8C%E9%A2%86%E5%9C%9F%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
